--- a/Simulación/Resultados.xlsx
+++ b/Simulación/Resultados.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Casas Vendidas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Casas Sin Vender" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Casas Vendidas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Casas Sin Vender" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,255 +28,267 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>Casa 10</t>
+  </si>
+  <si>
+    <t>Casa 100</t>
+  </si>
+  <si>
+    <t>Casa 56</t>
+  </si>
+  <si>
+    <t>Casa 32</t>
+  </si>
+  <si>
+    <t>Casa 30</t>
+  </si>
+  <si>
+    <t>Casa 78</t>
+  </si>
+  <si>
+    <t>Casa 91</t>
+  </si>
+  <si>
+    <t>Casa 27</t>
+  </si>
+  <si>
+    <t>Casa 80</t>
+  </si>
+  <si>
+    <t>Casa 2</t>
+  </si>
+  <si>
+    <t>Casa 92</t>
+  </si>
+  <si>
+    <t>Casa 72</t>
+  </si>
+  <si>
+    <t>Casa 68</t>
+  </si>
+  <si>
+    <t>Casa 67</t>
+  </si>
+  <si>
+    <t>Casa 83</t>
+  </si>
+  <si>
+    <t>Casa 57</t>
+  </si>
+  <si>
+    <t>Casa 13</t>
+  </si>
+  <si>
+    <t>Casa 26</t>
+  </si>
+  <si>
+    <t>Casa 95</t>
+  </si>
+  <si>
+    <t>Casa 33</t>
+  </si>
+  <si>
+    <t>Casa 9</t>
+  </si>
+  <si>
+    <t>Casa 44</t>
+  </si>
+  <si>
+    <t>Casa 35</t>
+  </si>
+  <si>
+    <t>Casa 61</t>
+  </si>
+  <si>
+    <t>Casa 70</t>
+  </si>
+  <si>
+    <t>Casa 15</t>
+  </si>
+  <si>
+    <t>Casa 1</t>
+  </si>
+  <si>
+    <t>Casa 3</t>
+  </si>
+  <si>
+    <t>Casa 4</t>
+  </si>
+  <si>
+    <t>Casa 5</t>
+  </si>
+  <si>
+    <t>Casa 6</t>
+  </si>
+  <si>
+    <t>Casa 7</t>
+  </si>
+  <si>
+    <t>Casa 8</t>
+  </si>
+  <si>
+    <t>Casa 11</t>
+  </si>
+  <si>
+    <t>Casa 12</t>
+  </si>
+  <si>
+    <t>Casa 14</t>
+  </si>
+  <si>
+    <t>Casa 16</t>
+  </si>
+  <si>
+    <t>Casa 17</t>
+  </si>
+  <si>
+    <t>Casa 18</t>
+  </si>
+  <si>
+    <t>Casa 19</t>
+  </si>
+  <si>
+    <t>Casa 20</t>
+  </si>
+  <si>
+    <t>Casa 21</t>
+  </si>
+  <si>
+    <t>Casa 22</t>
+  </si>
+  <si>
+    <t>Casa 23</t>
+  </si>
+  <si>
+    <t>Casa 24</t>
+  </si>
+  <si>
+    <t>Casa 25</t>
+  </si>
+  <si>
+    <t>Casa 28</t>
+  </si>
+  <si>
+    <t>Casa 29</t>
+  </si>
+  <si>
+    <t>Casa 31</t>
+  </si>
+  <si>
+    <t>Casa 34</t>
+  </si>
+  <si>
+    <t>Casa 36</t>
+  </si>
+  <si>
+    <t>Casa 37</t>
+  </si>
+  <si>
+    <t>Casa 38</t>
+  </si>
+  <si>
+    <t>Casa 39</t>
+  </si>
+  <si>
+    <t>Casa 40</t>
+  </si>
+  <si>
+    <t>Casa 41</t>
+  </si>
+  <si>
+    <t>Casa 42</t>
+  </si>
+  <si>
+    <t>Casa 43</t>
+  </si>
+  <si>
+    <t>Casa 45</t>
+  </si>
+  <si>
+    <t>Casa 46</t>
+  </si>
+  <si>
+    <t>Casa 47</t>
+  </si>
+  <si>
+    <t>Casa 48</t>
+  </si>
+  <si>
     <t>Casa 49</t>
   </si>
   <si>
+    <t>Casa 50</t>
+  </si>
+  <si>
+    <t>Casa 51</t>
+  </si>
+  <si>
+    <t>Casa 52</t>
+  </si>
+  <si>
+    <t>Casa 53</t>
+  </si>
+  <si>
+    <t>Casa 54</t>
+  </si>
+  <si>
+    <t>Casa 55</t>
+  </si>
+  <si>
+    <t>Casa 58</t>
+  </si>
+  <si>
+    <t>Casa 59</t>
+  </si>
+  <si>
+    <t>Casa 60</t>
+  </si>
+  <si>
+    <t>Casa 62</t>
+  </si>
+  <si>
+    <t>Casa 63</t>
+  </si>
+  <si>
+    <t>Casa 64</t>
+  </si>
+  <si>
+    <t>Casa 65</t>
+  </si>
+  <si>
+    <t>Casa 66</t>
+  </si>
+  <si>
+    <t>Casa 69</t>
+  </si>
+  <si>
+    <t>Casa 71</t>
+  </si>
+  <si>
+    <t>Casa 73</t>
+  </si>
+  <si>
     <t>Casa 74</t>
   </si>
   <si>
     <t>Casa 75</t>
   </si>
   <si>
-    <t>Casa 1</t>
-  </si>
-  <si>
-    <t>Casa 2</t>
-  </si>
-  <si>
-    <t>Casa 3</t>
-  </si>
-  <si>
-    <t>Casa 4</t>
-  </si>
-  <si>
-    <t>Casa 5</t>
-  </si>
-  <si>
-    <t>Casa 6</t>
-  </si>
-  <si>
-    <t>Casa 7</t>
-  </si>
-  <si>
-    <t>Casa 8</t>
-  </si>
-  <si>
-    <t>Casa 9</t>
-  </si>
-  <si>
-    <t>Casa 10</t>
-  </si>
-  <si>
-    <t>Casa 11</t>
-  </si>
-  <si>
-    <t>Casa 12</t>
-  </si>
-  <si>
-    <t>Casa 13</t>
-  </si>
-  <si>
-    <t>Casa 14</t>
-  </si>
-  <si>
-    <t>Casa 15</t>
-  </si>
-  <si>
-    <t>Casa 16</t>
-  </si>
-  <si>
-    <t>Casa 17</t>
-  </si>
-  <si>
-    <t>Casa 18</t>
-  </si>
-  <si>
-    <t>Casa 19</t>
-  </si>
-  <si>
-    <t>Casa 20</t>
-  </si>
-  <si>
-    <t>Casa 21</t>
-  </si>
-  <si>
-    <t>Casa 22</t>
-  </si>
-  <si>
-    <t>Casa 23</t>
-  </si>
-  <si>
-    <t>Casa 24</t>
-  </si>
-  <si>
-    <t>Casa 25</t>
-  </si>
-  <si>
-    <t>Casa 26</t>
-  </si>
-  <si>
-    <t>Casa 27</t>
-  </si>
-  <si>
-    <t>Casa 28</t>
-  </si>
-  <si>
-    <t>Casa 29</t>
-  </si>
-  <si>
-    <t>Casa 30</t>
-  </si>
-  <si>
-    <t>Casa 31</t>
-  </si>
-  <si>
-    <t>Casa 32</t>
-  </si>
-  <si>
-    <t>Casa 33</t>
-  </si>
-  <si>
-    <t>Casa 34</t>
-  </si>
-  <si>
-    <t>Casa 35</t>
-  </si>
-  <si>
-    <t>Casa 36</t>
-  </si>
-  <si>
-    <t>Casa 37</t>
-  </si>
-  <si>
-    <t>Casa 38</t>
-  </si>
-  <si>
-    <t>Casa 39</t>
-  </si>
-  <si>
-    <t>Casa 40</t>
-  </si>
-  <si>
-    <t>Casa 41</t>
-  </si>
-  <si>
-    <t>Casa 42</t>
-  </si>
-  <si>
-    <t>Casa 43</t>
-  </si>
-  <si>
-    <t>Casa 44</t>
-  </si>
-  <si>
-    <t>Casa 45</t>
-  </si>
-  <si>
-    <t>Casa 46</t>
-  </si>
-  <si>
-    <t>Casa 47</t>
-  </si>
-  <si>
-    <t>Casa 48</t>
-  </si>
-  <si>
-    <t>Casa 50</t>
-  </si>
-  <si>
-    <t>Casa 51</t>
-  </si>
-  <si>
-    <t>Casa 52</t>
-  </si>
-  <si>
-    <t>Casa 53</t>
-  </si>
-  <si>
-    <t>Casa 54</t>
-  </si>
-  <si>
-    <t>Casa 55</t>
-  </si>
-  <si>
-    <t>Casa 56</t>
-  </si>
-  <si>
-    <t>Casa 57</t>
-  </si>
-  <si>
-    <t>Casa 58</t>
-  </si>
-  <si>
-    <t>Casa 59</t>
-  </si>
-  <si>
-    <t>Casa 60</t>
-  </si>
-  <si>
-    <t>Casa 61</t>
-  </si>
-  <si>
-    <t>Casa 62</t>
-  </si>
-  <si>
-    <t>Casa 63</t>
-  </si>
-  <si>
-    <t>Casa 64</t>
-  </si>
-  <si>
-    <t>Casa 65</t>
-  </si>
-  <si>
-    <t>Casa 66</t>
-  </si>
-  <si>
-    <t>Casa 67</t>
-  </si>
-  <si>
-    <t>Casa 68</t>
-  </si>
-  <si>
-    <t>Casa 69</t>
-  </si>
-  <si>
-    <t>Casa 70</t>
-  </si>
-  <si>
-    <t>Casa 71</t>
-  </si>
-  <si>
-    <t>Casa 72</t>
-  </si>
-  <si>
-    <t>Casa 73</t>
-  </si>
-  <si>
     <t>Casa 76</t>
   </si>
   <si>
     <t>Casa 77</t>
   </si>
   <si>
-    <t>Casa 78</t>
-  </si>
-  <si>
     <t>Casa 79</t>
   </si>
   <si>
-    <t>Casa 80</t>
-  </si>
-  <si>
     <t>Casa 81</t>
   </si>
   <si>
     <t>Casa 82</t>
   </si>
   <si>
-    <t>Casa 83</t>
-  </si>
-  <si>
     <t>Casa 84</t>
   </si>
   <si>
@@ -297,21 +310,12 @@
     <t>Casa 90</t>
   </si>
   <si>
-    <t>Casa 91</t>
-  </si>
-  <si>
-    <t>Casa 92</t>
-  </si>
-  <si>
     <t>Casa 93</t>
   </si>
   <si>
     <t>Casa 94</t>
   </si>
   <si>
-    <t>Casa 95</t>
-  </si>
-  <si>
     <t>Casa 96</t>
   </si>
   <si>
@@ -322,9 +326,6 @@
   </si>
   <si>
     <t>Casa 99</t>
-  </si>
-  <si>
-    <t>Casa 100</t>
   </si>
 </sst>
 </file>
@@ -678,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,35 +700,288 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>193</v>
+        <v>255.6526829787234</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>291</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>196</v>
+        <v>255.6526829787234</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>194</v>
+        <v>255.6526829787234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>255.6526829787234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>225.1370666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>442</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>244.3925488372093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>525</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>244.3925488372093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>673</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>233.2882571428572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>734</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>255.6526829787234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>231.6284976744186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>255.6526829787234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>244.3925488372093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>233.2882571428572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>255.6526829787234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>1389</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>237.480808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>1404</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="n">
+        <v>237.480808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>1445</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>231.6284976744186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>1466</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>237.480808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>1591</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="n">
+        <v>237.480808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>1592</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
+        <v>231.6284976744186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="n">
+        <v>1876</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="n">
+        <v>231.6284976744186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="n">
+        <v>233.2882571428572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>224.0074857142857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="n">
+        <v>231.6284976744186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>2271</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="n">
+        <v>231.6284976744186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>2330</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="n">
+        <v>231.6284976744186</v>
       </c>
     </row>
   </sheetData>
@@ -741,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J98"/>
+  <dimension ref="A2:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,7 +1005,7 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -783,7 +1037,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -798,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -807,15 +1061,15 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -830,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -842,24 +1096,24 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -868,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -879,10 +1133,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -894,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -911,10 +1165,10 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -926,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -943,16 +1197,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -961,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -975,42 +1229,42 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1019,10 +1273,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1031,27 +1285,27 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -1060,24 +1314,24 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
@@ -1095,71 +1349,71 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1167,16 +1421,16 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1185,13 +1439,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1199,7 +1453,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B16" t="n">
         <v>4</v>
@@ -1223,18 +1477,18 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1243,13 +1497,13 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1263,10 +1517,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1295,7 +1549,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -1310,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1327,31 +1581,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1359,10 +1613,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1371,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1386,12 +1640,12 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
@@ -1406,27 +1660,27 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1441,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1455,19 +1709,19 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1476,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1487,19 +1741,19 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1508,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1519,16 +1773,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1540,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1551,63 +1805,63 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1615,7 +1869,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
@@ -1627,13 +1881,13 @@
         <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1642,21 +1896,21 @@
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1668,39 +1922,39 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1711,28 +1965,28 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1743,51 +1997,51 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1796,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1807,7 +2061,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
@@ -1822,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1839,7 +2093,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
@@ -1851,10 +2105,10 @@
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1863,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -1871,7 +2125,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
@@ -1889,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1903,10 +2157,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1918,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1935,28 +2189,28 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1967,31 +2221,31 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -1999,10 +2253,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2011,13 +2265,13 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -2026,12 +2280,12 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B42" t="n">
         <v>2</v>
@@ -2063,16 +2317,16 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2084,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2095,10 +2349,10 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -2113,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2127,13 +2381,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B45" t="n">
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>2</v>
@@ -2142,33 +2396,33 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2180,82 +2434,82 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B49" t="n">
         <v>2</v>
@@ -2287,19 +2541,19 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -2308,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2319,19 +2573,19 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2340,30 +2594,30 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2372,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2383,7 +2637,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B53" t="n">
         <v>2</v>
@@ -2398,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2415,16 +2669,16 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -2433,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2447,28 +2701,28 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2479,19 +2733,19 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2500,30 +2754,30 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2532,30 +2786,30 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2564,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -2575,16 +2829,16 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2593,85 +2847,85 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2686,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2703,60 +2957,60 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2767,51 +3021,51 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -2820,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -2831,10 +3085,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -2849,27 +3103,27 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>2</v>
@@ -2878,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2890,12 +3144,12 @@
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B69" t="n">
         <v>2</v>
@@ -2910,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2927,10 +3181,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -2942,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2951,36 +3205,36 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -2991,19 +3245,19 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -3012,30 +3266,30 @@
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -3044,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3055,10 +3309,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -3070,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3087,7 +3341,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -3105,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3115,742 +3369,6 @@
       </c>
       <c r="J75" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" t="n">
-        <v>5</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" t="n">
-        <v>5</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>2</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" t="n">
-        <v>5</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" t="n">
-        <v>5</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>2</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" t="n">
-        <v>4</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" t="n">
-        <v>4</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" t="n">
-        <v>3</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" t="n">
-        <v>5</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" t="n">
-        <v>3</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" t="n">
-        <v>3</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
-      <c r="A98" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" t="n">
-        <v>5</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>2</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
